--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/存货.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/存货.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>96.98560999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>298.82024</v>
-      </c>
-      <c r="D2" t="n">
-        <v>71.53449999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0549</v>
-      </c>
-      <c r="F2" t="n">
-        <v>69.90456</v>
-      </c>
-      <c r="G2" t="n">
-        <v>190.77784</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64.41437000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>79.197</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40.19883</v>
-      </c>
-      <c r="K2" t="n">
-        <v>146.1146</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4078.38827</v>
-      </c>
-      <c r="M2" t="n">
-        <v>39.50712</v>
-      </c>
-      <c r="N2" t="n">
-        <v>64.2462</v>
-      </c>
-      <c r="O2" t="n">
-        <v>163.44758</v>
-      </c>
-      <c r="P2" t="n">
-        <v>56.23709</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.53129</v>
-      </c>
-      <c r="R2" t="n">
-        <v>176.54277</v>
-      </c>
-      <c r="S2" t="n">
-        <v>52.26132</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>65.02212</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.32527</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.35894</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.81438</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>47.30192</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>791.81823</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>300.18654</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>127.30185</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>34.35426</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.82729</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>255.63163</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.15385</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>121.93898</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>192.09188</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>155.04853</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.70751</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>75.26591999999999</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>133.1584</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>93.85053000000001</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>64.4113</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.04312</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>108.38216</v>
-      </c>
-      <c r="C3" t="n">
-        <v>327.02686</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.79062999999999</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>81.90143999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>218.75692</v>
-      </c>
-      <c r="H3" t="n">
-        <v>39.16988</v>
-      </c>
-      <c r="I3" t="n">
-        <v>87.52298</v>
-      </c>
-      <c r="J3" t="n">
-        <v>45.19145</v>
-      </c>
-      <c r="K3" t="n">
-        <v>162.34444</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4287.69848</v>
-      </c>
-      <c r="M3" t="n">
-        <v>44.079</v>
-      </c>
-      <c r="N3" t="n">
-        <v>72.48793999999999</v>
-      </c>
-      <c r="O3" t="n">
-        <v>182.67035</v>
-      </c>
-      <c r="P3" t="n">
-        <v>53.12456</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.86309</v>
-      </c>
-      <c r="R3" t="n">
-        <v>175.88181</v>
-      </c>
-      <c r="S3" t="n">
-        <v>53.80003</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>68.36295</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3.5921</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.41717</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.80311</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>64.20572</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>747.58707</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>323.41224</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>135.66745</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>51.64803</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2.54756</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>265.92749</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.13779</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>110.67617</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>202.91959</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>166.27818</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.54207</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>83.87751</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>149.07475</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>95.16982</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>81.79677</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.0614</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>131.38673</v>
-      </c>
-      <c r="C4" t="n">
-        <v>350.51122</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91.06332</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>94.43394000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>230.25419</v>
-      </c>
-      <c r="H4" t="n">
-        <v>38.85072</v>
-      </c>
-      <c r="I4" t="n">
-        <v>88.29264000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>47.16874</v>
-      </c>
-      <c r="K4" t="n">
-        <v>175.34602</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4707.8965</v>
-      </c>
-      <c r="M4" t="n">
-        <v>50.84285</v>
-      </c>
-      <c r="N4" t="n">
-        <v>80.91578</v>
-      </c>
-      <c r="O4" t="n">
-        <v>214.15425</v>
-      </c>
-      <c r="P4" t="n">
-        <v>65.76195</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.9756</v>
-      </c>
-      <c r="R4" t="n">
-        <v>180.76015</v>
-      </c>
-      <c r="S4" t="n">
-        <v>52.03145</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>73.87529000000001</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.67417</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.78952</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2.82499</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>65.31021</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>862.33386</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>322.49152</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>147.71824</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>65.1546</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2.69441</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>296.55631</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.31475</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>121.07276</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>217.97306</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>177.44614</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3.01758</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>90.99475</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>184.71125</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>93.08627</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>79.96005</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.07994999999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
